--- a/Базовй профиль.xlsx
+++ b/Базовй профиль.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Метод</t>
   </si>
@@ -41,18 +41,6 @@
   </si>
   <si>
     <t>GET /api/getDocByName</t>
-  </si>
-  <si>
-    <t>GET /api/stopLeak</t>
-  </si>
-  <si>
-    <t>GET /api/stopCPULoad</t>
-  </si>
-  <si>
-    <t>GET /api/startLeak</t>
-  </si>
-  <si>
-    <t>GET /api/startCPULoad</t>
   </si>
 </sst>
 </file>
@@ -451,7 +439,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,7 +472,7 @@
         <v>37289</v>
       </c>
       <c r="C2" s="3">
-        <v>0.12520000000000001</v>
+        <v>0.1002</v>
       </c>
       <c r="D2" s="2">
         <v>10.36</v>
@@ -498,10 +486,10 @@
         <v>93114</v>
       </c>
       <c r="C3" s="3">
-        <v>0.31259999999999999</v>
+        <v>0.25019999999999998</v>
       </c>
       <c r="D3" s="2">
-        <v>25.86</v>
+        <v>25.87</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -512,10 +500,10 @@
         <v>93114</v>
       </c>
       <c r="C4" s="3">
-        <v>0.31259999999999999</v>
+        <v>0.25019999999999998</v>
       </c>
       <c r="D4" s="2">
-        <v>25.86</v>
+        <v>25.87</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -526,7 +514,7 @@
         <v>74385</v>
       </c>
       <c r="C5" s="3">
-        <v>0.24970000000000001</v>
+        <v>0.19980000000000001</v>
       </c>
       <c r="D5" s="2">
         <v>20.66</v>
@@ -537,71 +525,19 @@
         <v>8</v>
       </c>
       <c r="B6" s="2">
-        <v>0</v>
+        <v>74329</v>
       </c>
       <c r="C6" s="3">
-        <v>0</v>
+        <v>0.19969999999999999</v>
       </c>
       <c r="D6" s="2">
-        <v>0</v>
+        <v>20.65</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="7" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Базовй профиль.xlsx
+++ b/Базовй профиль.xlsx
@@ -4,20 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Метод</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Количество вызовов</t>
   </si>
@@ -41,13 +38,31 @@
   </si>
   <si>
     <t>GET /api/getDocByName</t>
+  </si>
+  <si>
+    <t>тод</t>
+  </si>
+  <si>
+    <t>Пейсинг (сек)</t>
+  </si>
+  <si>
+    <t>Количество пользователей (VUs)</t>
+  </si>
+  <si>
+    <t>Всего вызовов</t>
+  </si>
+  <si>
+    <t>Формула для VUS           =Кол-во вызовов/(3600*RPS)</t>
+  </si>
+  <si>
+    <t>Формула для пейсинга    =Кол-во пользоватлеей/RPS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,8 +85,15 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -87,6 +109,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -118,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -131,6 +159,20 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -436,37 +478,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" width="30.109375" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
       </c>
       <c r="B2" s="2">
         <v>37289</v>
@@ -477,10 +527,18 @@
       <c r="D2" s="2">
         <v>10.36</v>
       </c>
+      <c r="E2" s="7">
+        <v>9.65</v>
+      </c>
+      <c r="F2" s="7">
+        <f>D2*E2</f>
+        <v>99.974000000000004</v>
+      </c>
+      <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2">
         <v>93114</v>
@@ -491,10 +549,18 @@
       <c r="D3" s="2">
         <v>25.87</v>
       </c>
+      <c r="E3" s="7">
+        <v>3.86</v>
+      </c>
+      <c r="F3" s="7">
+        <f t="shared" ref="F3:F6" si="0">D3*E3</f>
+        <v>99.858199999999997</v>
+      </c>
+      <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2">
         <v>93114</v>
@@ -505,10 +571,18 @@
       <c r="D4" s="2">
         <v>25.87</v>
       </c>
+      <c r="E4" s="7">
+        <v>3.86</v>
+      </c>
+      <c r="F4" s="7">
+        <f t="shared" si="0"/>
+        <v>99.858199999999997</v>
+      </c>
+      <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2">
         <v>74385</v>
@@ -519,10 +593,18 @@
       <c r="D5" s="2">
         <v>20.66</v>
       </c>
+      <c r="E5" s="7">
+        <v>4.84</v>
+      </c>
+      <c r="F5" s="7">
+        <f t="shared" si="0"/>
+        <v>99.994399999999999</v>
+      </c>
+      <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2">
         <v>74329</v>
@@ -533,11 +615,35 @@
       <c r="D6" s="2">
         <v>20.65</v>
       </c>
+      <c r="E6" s="7">
+        <v>4.84</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="0"/>
+        <v>99.945999999999984</v>
+      </c>
+      <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="6">
+        <v>372231</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Базовй профиль.xlsx
+++ b/Базовй профиль.xlsx
@@ -40,9 +40,6 @@
     <t>GET /api/getDocByName</t>
   </si>
   <si>
-    <t>тод</t>
-  </si>
-  <si>
     <t>Пейсинг (сек)</t>
   </si>
   <si>
@@ -56,6 +53,9 @@
   </si>
   <si>
     <t>Формула для пейсинга    =Кол-во пользоватлеей/RPS</t>
+  </si>
+  <si>
+    <t>Методы</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,7 +496,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -508,10 +508,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -519,20 +519,19 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>37289</v>
+        <v>11972</v>
       </c>
       <c r="C2" s="3">
-        <v>0.1002</v>
+        <v>0.10059999999999999</v>
       </c>
       <c r="D2" s="2">
-        <v>10.36</v>
+        <v>3.33</v>
       </c>
       <c r="E2" s="7">
-        <v>9.65</v>
+        <v>0.3</v>
       </c>
       <c r="F2" s="7">
-        <f>D2*E2</f>
-        <v>99.974000000000004</v>
+        <v>1</v>
       </c>
       <c r="G2" s="9"/>
     </row>
@@ -541,20 +540,19 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>93114</v>
+        <v>29838</v>
       </c>
       <c r="C3" s="3">
-        <v>0.25019999999999998</v>
+        <v>0.25069999999999998</v>
       </c>
       <c r="D3" s="2">
-        <v>25.87</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="E3" s="7">
-        <v>3.86</v>
+        <v>0.12</v>
       </c>
       <c r="F3" s="7">
-        <f t="shared" ref="F3:F6" si="0">D3*E3</f>
-        <v>99.858199999999997</v>
+        <v>1</v>
       </c>
       <c r="G3" s="9"/>
     </row>
@@ -563,20 +561,19 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>93114</v>
+        <v>29839</v>
       </c>
       <c r="C4" s="3">
-        <v>0.25019999999999998</v>
+        <v>0.25069999999999998</v>
       </c>
       <c r="D4" s="2">
-        <v>25.87</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="E4" s="7">
-        <v>3.86</v>
+        <v>0.12</v>
       </c>
       <c r="F4" s="7">
-        <f t="shared" si="0"/>
-        <v>99.858199999999997</v>
+        <v>1</v>
       </c>
       <c r="G4" s="9"/>
     </row>
@@ -585,20 +582,19 @@
         <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>74385</v>
+        <v>23689</v>
       </c>
       <c r="C5" s="3">
-        <v>0.19980000000000001</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="D5" s="2">
-        <v>20.66</v>
+        <v>6.58</v>
       </c>
       <c r="E5" s="7">
-        <v>4.84</v>
+        <v>0.15</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" si="0"/>
-        <v>99.994399999999999</v>
+        <v>1</v>
       </c>
       <c r="G5" s="9"/>
     </row>
@@ -607,37 +603,37 @@
         <v>7</v>
       </c>
       <c r="B6" s="2">
-        <v>74329</v>
+        <v>23689</v>
       </c>
       <c r="C6" s="3">
-        <v>0.19969999999999999</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="D6" s="2">
-        <v>20.65</v>
+        <v>6.58</v>
       </c>
       <c r="E6" s="7">
-        <v>4.84</v>
+        <v>0.15</v>
       </c>
       <c r="F6" s="7">
-        <f t="shared" si="0"/>
-        <v>99.945999999999984</v>
+        <v>1</v>
       </c>
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="6">
-        <v>372231</v>
+        <f>SUM(B2:B6)</f>
+        <v>119027</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="9"/>
     </row>

--- a/Базовй профиль.xlsx
+++ b/Базовй профиль.xlsx
@@ -49,13 +49,13 @@
     <t>Всего вызовов</t>
   </si>
   <si>
-    <t>Формула для VUS           =Кол-во вызовов/(3600*RPS)</t>
-  </si>
-  <si>
     <t>Формула для пейсинга    =Кол-во пользоватлеей/RPS</t>
   </si>
   <si>
     <t>Методы</t>
+  </si>
+  <si>
+    <t>Формула для VUS           =RPS*paicing</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,7 +496,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -528,10 +528,11 @@
         <v>3.33</v>
       </c>
       <c r="E2" s="7">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="F2" s="7">
-        <v>1</v>
+        <f>D2*E2</f>
+        <v>3.33</v>
       </c>
       <c r="G2" s="9"/>
     </row>
@@ -549,10 +550,11 @@
         <v>8.2899999999999991</v>
       </c>
       <c r="E3" s="7">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="F3" s="7">
-        <v>1</v>
+        <f t="shared" ref="F3:F6" si="0">D3*E3</f>
+        <v>8.2899999999999991</v>
       </c>
       <c r="G3" s="9"/>
     </row>
@@ -570,10 +572,11 @@
         <v>8.2899999999999991</v>
       </c>
       <c r="E4" s="7">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="F4" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>8.2899999999999991</v>
       </c>
       <c r="G4" s="9"/>
     </row>
@@ -591,10 +594,11 @@
         <v>6.58</v>
       </c>
       <c r="E5" s="7">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="F5" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>13.16</v>
       </c>
       <c r="G5" s="9"/>
     </row>
@@ -612,10 +616,11 @@
         <v>6.58</v>
       </c>
       <c r="E6" s="7">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="F6" s="7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>13.16</v>
       </c>
       <c r="G6" s="9"/>
     </row>
@@ -630,10 +635,10 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G7" s="9"/>
     </row>
